--- a/TNR/TCGenerator/TCGenerator_Fournisseur.xlsx
+++ b/TNR/TCGenerator/TCGenerator_Fournisseur.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Lisez moi" sheetId="5" r:id="rId1"/>
     <sheet name="Generator" sheetId="1" r:id="rId2"/>
     <sheet name="TAG" sheetId="2" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Step">Generator!$A:$J</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="104">
   <si>
     <t>ID_CODGES</t>
   </si>
@@ -303,6 +304,36 @@
   </si>
   <si>
     <t>TEXTES COMMANDE</t>
+  </si>
+  <si>
+    <t>$TAB$ID_CODFOU</t>
+  </si>
+  <si>
+    <t>tab_FournisseurSelected</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$ID_CODFOU</t>
+  </si>
+  <si>
+    <t>$TAB$ID_NUMCDE</t>
+  </si>
+  <si>
+    <t>tab_CommandeSelected</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$ID_NUMCDE</t>
+  </si>
+  <si>
+    <t>$TAB$NOTES</t>
+  </si>
+  <si>
+    <t>tab_NotesSelected</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$NOTES</t>
+  </si>
+  <si>
+    <t>ADRESSE</t>
   </si>
 </sst>
 </file>
@@ -451,7 +482,58 @@
     <cellStyle name="Normal 8" xfId="11"/>
     <cellStyle name="Normal 9" xfId="12"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -773,11 +855,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -880,23 +962,23 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="15" t="str">
-        <f t="shared" ref="F4:F54" si="5">IF(ISBLANK(D4),"",VLOOKUP(D4,TAG_List,2,FALSE)&amp;B4&amp;VLOOKUP(D4,TAG_List,3,FALSE))</f>
+        <f t="shared" ref="F4:F56" si="5">IF(ISBLANK(D4),"",VLOOKUP(D4,TAG_List,2,FALSE)&amp;B4&amp;VLOOKUP(D4,TAG_List,3,FALSE))</f>
         <v>KW.scrollAndClick(myJDD,"tab_Fournisseur")</v>
       </c>
       <c r="G4" s="15" t="str">
-        <f t="shared" ref="G4:G54" si="6">IF(ISBLANK(D4),"",VLOOKUP(D4,TAG_List,4,FALSE)&amp;B4&amp;VLOOKUP(D4,TAG_List,5,FALSE))</f>
+        <f t="shared" ref="G4:G56" si="6">IF(ISBLANK(D4),"",VLOOKUP(D4,TAG_List,4,FALSE)&amp;B4&amp;VLOOKUP(D4,TAG_List,5,FALSE))</f>
         <v>KW.scrollAndClick(myJDD,"tab_Fournisseur")</v>
       </c>
       <c r="H4" s="15" t="str">
-        <f t="shared" ref="H4:H54" si="7">IF(ISBLANK(D4),"",VLOOKUP(D4,TAG_List,6,FALSE)&amp;B4&amp;VLOOKUP(D4,TAG_List,7,FALSE))</f>
+        <f t="shared" ref="H4:H56" si="7">IF(ISBLANK(D4),"",VLOOKUP(D4,TAG_List,6,FALSE)&amp;B4&amp;VLOOKUP(D4,TAG_List,7,FALSE))</f>
         <v>KW.scrollAndClick(myJDD,"tab_Fournisseur")</v>
       </c>
       <c r="I4" s="18" t="str">
-        <f t="shared" ref="I4:I54" si="8">IF(OR(D4="tab",D4="tabselected"),B4&amp;VLOOKUP(D4,TAG_List,8,FALSE),"")</f>
+        <f t="shared" ref="I4:I56" si="8">IF(OR(D4="tab",D4="tabselected"),B4&amp;VLOOKUP(D4,TAG_List,8,FALSE),"")</f>
         <v>tab_Fournisseur</v>
       </c>
       <c r="J4" s="18" t="str">
-        <f t="shared" ref="J4:J54" si="9">IF(OR(D4="tab",D4="tabselected"),VLOOKUP(D4,TAG_List,9,FALSE)&amp;C4,"")</f>
+        <f t="shared" ref="J4:J56" si="9">IF(OR(D4="tab",D4="tabselected"),VLOOKUP(D4,TAG_List,9,FALSE)&amp;C4,"")</f>
         <v>$TAB$ID_CODFOU</v>
       </c>
     </row>
@@ -1173,88 +1255,82 @@
     </row>
     <row r="15" spans="1:10" s="15" customFormat="1">
       <c r="B15" s="15" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="F15" s="15" t="str">
+        <f t="shared" ref="F15:F17" si="10">IF(ISBLANK(D15),"",VLOOKUP(D15,TAG_List,2,FALSE)&amp;B15&amp;VLOOKUP(D15,TAG_List,3,FALSE))</f>
+        <v>MYLOG.addSTEPBLOCK("ADRESSE")</v>
+      </c>
+      <c r="G15" s="15" t="str">
+        <f t="shared" ref="G15:G17" si="11">IF(ISBLANK(D15),"",VLOOKUP(D15,TAG_List,4,FALSE)&amp;B15&amp;VLOOKUP(D15,TAG_List,5,FALSE))</f>
+        <v>MYLOG.addSTEPBLOCK("ADRESSE")</v>
+      </c>
+      <c r="H15" s="15" t="str">
+        <f t="shared" ref="H15:H17" si="12">IF(ISBLANK(D15),"",VLOOKUP(D15,TAG_List,6,FALSE)&amp;B15&amp;VLOOKUP(D15,TAG_List,7,FALSE))</f>
+        <v>MYLOG.addSTEPBLOCK("ADRESSE")</v>
+      </c>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>2</v>
-      </c>
+    <row r="16" spans="1:10" s="15" customFormat="1">
       <c r="F16" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>KW.scrollAndSetText(myJDD,"ST_TELPHO")</v>
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="G16" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>KW.scrollAndSetText(myJDD, "ST_TELPHO")</v>
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="H16" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ST_TELPHO")</v>
-      </c>
-      <c r="I16" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J16" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="2:10" s="15" customFormat="1">
       <c r="B17" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F17" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>KW.scrollAndSetText(myJDD,"ST_CON")</v>
+        <f t="shared" si="10"/>
+        <v>MYLOG.addSTEPBLOCK("CONTACT")</v>
       </c>
       <c r="G17" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>KW.scrollAndSetText(myJDD, "ST_CON")</v>
+        <f t="shared" si="11"/>
+        <v>MYLOG.addSTEPBLOCK("CONTACT")</v>
       </c>
       <c r="H17" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ST_CON")</v>
-      </c>
-      <c r="I17" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J17" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
+        <f t="shared" si="12"/>
+        <v>MYLOG.addSTEPBLOCK("CONTACT")</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>KW.scrollAndSetText(myJDD,"ST_TELMOB")</v>
+        <v>KW.scrollAndSetText(myJDD,"ST_TELPHO")</v>
       </c>
       <c r="G18" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>KW.scrollAndSetText(myJDD, "ST_TELMOB")</v>
+        <v>KW.scrollAndSetText(myJDD, "ST_TELPHO")</v>
       </c>
       <c r="H18" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ST_TELMOB")</v>
+        <v>KW.verifyValue(myJDD,"ST_TELPHO")</v>
       </c>
       <c r="I18" s="18" t="str">
         <f t="shared" si="8"/>
@@ -1266,23 +1342,23 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="14" t="s">
-        <v>61</v>
+      <c r="B19" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>KW.scrollAndSetText(myJDD,"ST_EMA")</v>
+        <v>KW.scrollAndSetText(myJDD,"ST_CON")</v>
       </c>
       <c r="G19" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>KW.scrollAndSetText(myJDD, "ST_EMA")</v>
+        <v>KW.scrollAndSetText(myJDD, "ST_CON")</v>
       </c>
       <c r="H19" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ST_EMA")</v>
+        <v>KW.verifyValue(myJDD,"ST_CON")</v>
       </c>
       <c r="I19" s="18" t="str">
         <f t="shared" si="8"/>
@@ -1295,22 +1371,22 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>KW.scrollAndSetText(myJDD,"ST_TELCOP")</v>
+        <v>KW.scrollAndSetText(myJDD,"ST_TELMOB")</v>
       </c>
       <c r="G20" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>KW.scrollAndSetText(myJDD, "ST_TELCOP")</v>
+        <v>KW.scrollAndSetText(myJDD, "ST_TELMOB")</v>
       </c>
       <c r="H20" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ST_TELCOP")</v>
+        <v>KW.verifyValue(myJDD,"ST_TELMOB")</v>
       </c>
       <c r="I20" s="18" t="str">
         <f t="shared" si="8"/>
@@ -1323,22 +1399,22 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F21" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>KW.scrollAndSetText(myJDD,"ST_TELEX")</v>
+        <v>KW.scrollAndSetText(myJDD,"ST_EMA")</v>
       </c>
       <c r="G21" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>KW.scrollAndSetText(myJDD, "ST_TELEX")</v>
+        <v>KW.scrollAndSetText(myJDD, "ST_EMA")</v>
       </c>
       <c r="H21" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ST_TELEX")</v>
+        <v>KW.verifyValue(myJDD,"ST_EMA")</v>
       </c>
       <c r="I21" s="18" t="str">
         <f t="shared" si="8"/>
@@ -1349,28 +1425,52 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:10" s="15" customFormat="1">
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+    <row r="22" spans="2:10">
+      <c r="B22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>KW.scrollAndSetText(myJDD,"ST_TELCOP")</v>
+      </c>
+      <c r="G22" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>KW.scrollAndSetText(myJDD, "ST_TELCOP")</v>
+      </c>
+      <c r="H22" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>KW.verifyValue(myJDD,"ST_TELCOP")</v>
+      </c>
+      <c r="I22" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J22" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F23" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>MYLOG.addSTEPGRP("ONGLET COMMANDE")</v>
+        <v>KW.scrollAndSetText(myJDD,"ST_TELEX")</v>
       </c>
       <c r="G23" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>MYLOG.addSTEPGRP("ONGLET COMMANDE")</v>
+        <v>KW.scrollAndSetText(myJDD, "ST_TELEX")</v>
       </c>
       <c r="H23" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>MYLOG.addSTEPGRP("ONGLET COMMANDE")</v>
+        <v>KW.verifyValue(myJDD,"ST_TELEX")</v>
       </c>
       <c r="I23" s="18" t="str">
         <f t="shared" si="8"/>
@@ -1386,145 +1486,121 @@
       <c r="J24" s="18"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>MYLOG.addSTEPGRP("ONGLET COMMANDE")</v>
+      </c>
+      <c r="G25" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>MYLOG.addSTEPGRP("ONGLET COMMANDE")</v>
+      </c>
+      <c r="H25" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>MYLOG.addSTEPGRP("ONGLET COMMANDE")</v>
+      </c>
+      <c r="I25" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J25" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:10" s="15" customFormat="1">
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D27" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="15" t="str">
+      <c r="F27" s="15" t="str">
         <f t="shared" si="5"/>
         <v>KW.scrollAndClick(myJDD,"tab_Commande")</v>
       </c>
-      <c r="G25" s="15" t="str">
+      <c r="G27" s="15" t="str">
         <f t="shared" si="6"/>
         <v>KW.scrollAndClick(myJDD,"tab_Commande")</v>
       </c>
-      <c r="H25" s="15" t="str">
+      <c r="H27" s="15" t="str">
         <f t="shared" si="7"/>
         <v>KW.scrollAndClick(myJDD,"tab_Commande")</v>
       </c>
-      <c r="I25" s="18" t="str">
+      <c r="I27" s="18" t="str">
         <f t="shared" si="8"/>
         <v>tab_Commande</v>
       </c>
-      <c r="J25" s="18" t="str">
+      <c r="J27" s="18" t="str">
         <f t="shared" si="9"/>
         <v>$TAB$ID_NUMCDE</v>
       </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>KW.waitForElementVisible(myJDD,"tab_CommandeSelected")</v>
-      </c>
-      <c r="G26" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>KW.waitForElementVisible(myJDD,"tab_CommandeSelected")</v>
-      </c>
-      <c r="H26" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v>KW.waitForElementVisible(myJDD,"tab_CommandeSelected")</v>
-      </c>
-      <c r="I26" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v>tab_CommandeSelected</v>
-      </c>
-      <c r="J26" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v>$TABSELECTED$ID_NUMCDE</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" s="15" customFormat="1">
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>KW.waitForElementVisible(myJDD,"tab_CommandeSelected")</v>
+      </c>
+      <c r="G28" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>KW.waitForElementVisible(myJDD,"tab_CommandeSelected")</v>
+      </c>
+      <c r="H28" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>KW.waitForElementVisible(myJDD,"tab_CommandeSelected")</v>
+      </c>
+      <c r="I28" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>tab_CommandeSelected</v>
+      </c>
+      <c r="J28" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>$TABSELECTED$ID_NUMCDE</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" s="15" customFormat="1">
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="15" t="str">
+      <c r="F30" s="15" t="str">
         <f t="shared" si="5"/>
         <v>KW.scrollAndSetText(myJDD,"ST_PRIDEL")</v>
       </c>
-      <c r="G28" s="15" t="str">
+      <c r="G30" s="15" t="str">
         <f t="shared" si="6"/>
         <v>KW.scrollAndSetText(myJDD, "ST_PRIDEL")</v>
       </c>
-      <c r="H28" s="15" t="str">
+      <c r="H30" s="15" t="str">
         <f t="shared" si="7"/>
         <v>KW.verifyValue(myJDD,"ST_PRIDEL")</v>
-      </c>
-      <c r="I28" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J28" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>KW.scrollAndSetText(myJDD,"ID_CODPAI")</v>
-      </c>
-      <c r="G29" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>KW.searchWithHelper(myJDD, "ID_CODPAI","","")</v>
-      </c>
-      <c r="H29" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ID_CODPAI")</v>
-      </c>
-      <c r="I29" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J29" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>//ST_DESID_CODPAI --&gt; pas d'action en création</v>
-      </c>
-      <c r="G30" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>//ST_DESID_CODPAI --&gt; pas d'action en modification</v>
-      </c>
-      <c r="H30" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ST_DESID_CODPAI")</v>
       </c>
       <c r="I30" s="18" t="str">
         <f t="shared" si="8"/>
@@ -1537,22 +1613,22 @@
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="F31" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>KW.scrollAndSetText(myJDD,"ST_NOTPRO")</v>
+        <v>KW.scrollAndSetText(myJDD,"ID_CODPAI")</v>
       </c>
       <c r="G31" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>KW.scrollAndSetText(myJDD, "ST_NOTPRO")</v>
+        <v>KW.searchWithHelper(myJDD, "ID_CODPAI","","")</v>
       </c>
       <c r="H31" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ST_NOTPRO")</v>
+        <v>KW.verifyValue(myJDD,"ID_CODPAI")</v>
       </c>
       <c r="I31" s="18" t="str">
         <f t="shared" si="8"/>
@@ -1565,22 +1641,22 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F32" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>KW.scrollAndSetText(myJDD,"ID_CODMOD")</v>
+        <v>//ST_DESID_CODPAI --&gt; pas d'action en création</v>
       </c>
       <c r="G32" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>KW.searchWithHelper(myJDD, "ID_CODMOD","","")</v>
+        <v>//ST_DESID_CODPAI --&gt; pas d'action en modification</v>
       </c>
       <c r="H32" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ID_CODMOD")</v>
+        <v>KW.verifyValue(myJDD,"ST_DESID_CODPAI")</v>
       </c>
       <c r="I32" s="18" t="str">
         <f t="shared" si="8"/>
@@ -1593,22 +1669,22 @@
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F33" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>//ST_DESID_CODMOD --&gt; pas d'action en création</v>
+        <v>KW.scrollAndSetText(myJDD,"ST_NOTPRO")</v>
       </c>
       <c r="G33" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>//ST_DESID_CODMOD --&gt; pas d'action en modification</v>
+        <v>KW.scrollAndSetText(myJDD, "ST_NOTPRO")</v>
       </c>
       <c r="H33" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ST_DESID_CODMOD")</v>
+        <v>KW.verifyValue(myJDD,"ST_NOTPRO")</v>
       </c>
       <c r="I33" s="18" t="str">
         <f t="shared" si="8"/>
@@ -1621,22 +1697,22 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>54</v>
       </c>
       <c r="F34" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>KW.scrollAndSetText(myJDD,"ID_CODDEV")</v>
+        <v>KW.scrollAndSetText(myJDD,"ID_CODMOD")</v>
       </c>
       <c r="G34" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>KW.searchWithHelper(myJDD, "ID_CODDEV","","")</v>
+        <v>KW.searchWithHelper(myJDD, "ID_CODMOD","","")</v>
       </c>
       <c r="H34" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ID_CODDEV")</v>
+        <v>KW.verifyValue(myJDD,"ID_CODMOD")</v>
       </c>
       <c r="I34" s="18" t="str">
         <f t="shared" si="8"/>
@@ -1649,22 +1725,22 @@
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F35" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>//ST_DESID_CODDEV --&gt; pas d'action en création</v>
+        <v>//ST_DESID_CODMOD --&gt; pas d'action en création</v>
       </c>
       <c r="G35" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>//ST_DESID_CODDEV --&gt; pas d'action en modification</v>
+        <v>//ST_DESID_CODMOD --&gt; pas d'action en modification</v>
       </c>
       <c r="H35" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ST_DESID_CODDEV")</v>
+        <v>KW.verifyValue(myJDD,"ST_DESID_CODMOD")</v>
       </c>
       <c r="I35" s="18" t="str">
         <f t="shared" si="8"/>
@@ -1677,22 +1753,22 @@
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>54</v>
       </c>
       <c r="F36" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>KW.scrollAndSetText(myJDD,"ID_CODPOR")</v>
+        <v>KW.scrollAndSetText(myJDD,"ID_CODDEV")</v>
       </c>
       <c r="G36" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>KW.searchWithHelper(myJDD, "ID_CODPOR","","")</v>
+        <v>KW.searchWithHelper(myJDD, "ID_CODDEV","","")</v>
       </c>
       <c r="H36" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ID_CODPOR")</v>
+        <v>KW.verifyValue(myJDD,"ID_CODDEV")</v>
       </c>
       <c r="I36" s="18" t="str">
         <f t="shared" si="8"/>
@@ -1705,22 +1781,22 @@
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>//ST_DESID_CODPOR --&gt; pas d'action en création</v>
+        <v>//ST_DESID_CODDEV --&gt; pas d'action en création</v>
       </c>
       <c r="G37" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>//ST_DESID_CODPOR --&gt; pas d'action en modification</v>
+        <v>//ST_DESID_CODDEV --&gt; pas d'action en modification</v>
       </c>
       <c r="H37" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ST_DESID_CODPOR")</v>
+        <v>KW.verifyValue(myJDD,"ST_DESID_CODDEV")</v>
       </c>
       <c r="I37" s="18" t="str">
         <f t="shared" si="8"/>
@@ -1733,22 +1809,22 @@
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>54</v>
       </c>
       <c r="F38" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>KW.scrollAndSetText(myJDD,"ID_CODEMB")</v>
+        <v>KW.scrollAndSetText(myJDD,"ID_CODPOR")</v>
       </c>
       <c r="G38" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>KW.searchWithHelper(myJDD, "ID_CODEMB","","")</v>
+        <v>KW.searchWithHelper(myJDD, "ID_CODPOR","","")</v>
       </c>
       <c r="H38" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ID_CODEMB")</v>
+        <v>KW.verifyValue(myJDD,"ID_CODPOR")</v>
       </c>
       <c r="I38" s="18" t="str">
         <f t="shared" si="8"/>
@@ -1761,22 +1837,22 @@
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>//ST_DESID_CODEMB --&gt; pas d'action en création</v>
+        <v>//ST_DESID_CODPOR --&gt; pas d'action en création</v>
       </c>
       <c r="G39" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>//ST_DESID_CODEMB --&gt; pas d'action en modification</v>
+        <v>//ST_DESID_CODPOR --&gt; pas d'action en modification</v>
       </c>
       <c r="H39" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ST_DESID_CODEMB")</v>
+        <v>KW.verifyValue(myJDD,"ST_DESID_CODPOR")</v>
       </c>
       <c r="I39" s="18" t="str">
         <f t="shared" si="8"/>
@@ -1789,22 +1865,22 @@
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="F40" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>KW.scrollAndSetText(myJDD,"ST_REL")</v>
+        <v>KW.scrollAndSetText(myJDD,"ID_CODEMB")</v>
       </c>
       <c r="G40" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>KW.scrollAndSetText(myJDD, "ST_REL")</v>
+        <v>KW.searchWithHelper(myJDD, "ID_CODEMB","","")</v>
       </c>
       <c r="H40" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ST_REL")</v>
+        <v>KW.verifyValue(myJDD,"ID_CODEMB")</v>
       </c>
       <c r="I40" s="18" t="str">
         <f t="shared" si="8"/>
@@ -1817,22 +1893,22 @@
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F41" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_FIGCAT","O")</v>
+        <v>//ST_DESID_CODEMB --&gt; pas d'action en création</v>
       </c>
       <c r="G41" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_FIGCAT","O")</v>
+        <v>//ST_DESID_CODEMB --&gt; pas d'action en modification</v>
       </c>
       <c r="H41" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>KW.verifyElementCheckedOrNot(myJDD,"ST_FIGCAT","O")</v>
+        <v>KW.verifyValue(myJDD,"ST_DESID_CODEMB")</v>
       </c>
       <c r="I41" s="18" t="str">
         <f t="shared" si="8"/>
@@ -1843,34 +1919,52 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:10" s="15" customFormat="1">
-      <c r="B42" s="15" t="s">
-        <v>93</v>
+    <row r="42" spans="2:10">
+      <c r="B42" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="F42" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>KW.scrollAndSetText(myJDD,"ST_REL")</v>
+      </c>
+      <c r="G42" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>KW.scrollAndSetText(myJDD, "ST_REL")</v>
+      </c>
+      <c r="H42" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>KW.verifyValue(myJDD,"ST_REL")</v>
+      </c>
+      <c r="I42" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J42" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>KW.scrollAndSetText(myJDD,"ST_TXTBAS1")</v>
+        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_FIGCAT","O")</v>
       </c>
       <c r="G43" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>KW.scrollAndSetText(myJDD, "ST_TXTBAS1")</v>
+        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_FIGCAT","O")</v>
       </c>
       <c r="H43" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ST_TXTBAS1")</v>
+        <v>KW.verifyElementCheckedOrNot(myJDD,"ST_FIGCAT","O")</v>
       </c>
       <c r="I43" s="18" t="str">
         <f t="shared" si="8"/>
@@ -1881,52 +1975,46 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="14" t="s">
-        <v>78</v>
+    <row r="44" spans="2:10" s="15" customFormat="1">
+      <c r="B44" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F44" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>KW.scrollAndSetText(myJDD,"ST_TXTBAS2")</v>
+        <f t="shared" ref="F44" si="13">IF(ISBLANK(D44),"",VLOOKUP(D44,TAG_List,2,FALSE)&amp;B44&amp;VLOOKUP(D44,TAG_List,3,FALSE))</f>
+        <v>MYLOG.addSTEPBLOCK("TEXTES COMMANDE")</v>
       </c>
       <c r="G44" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>KW.scrollAndSetText(myJDD, "ST_TXTBAS2")</v>
+        <f t="shared" ref="G44" si="14">IF(ISBLANK(D44),"",VLOOKUP(D44,TAG_List,4,FALSE)&amp;B44&amp;VLOOKUP(D44,TAG_List,5,FALSE))</f>
+        <v>MYLOG.addSTEPBLOCK("TEXTES COMMANDE")</v>
       </c>
       <c r="H44" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ST_TXTBAS2")</v>
-      </c>
-      <c r="I44" s="18" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J44" s="18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
+        <f t="shared" ref="H44" si="15">IF(ISBLANK(D44),"",VLOOKUP(D44,TAG_List,6,FALSE)&amp;B44&amp;VLOOKUP(D44,TAG_List,7,FALSE))</f>
+        <v>MYLOG.addSTEPBLOCK("TEXTES COMMANDE")</v>
+      </c>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>KW.scrollAndSetText(myJDD,"ST_TXTBAS3")</v>
+        <v>KW.scrollAndSetText(myJDD,"ST_TXTBAS1")</v>
       </c>
       <c r="G45" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>KW.scrollAndSetText(myJDD, "ST_TXTBAS3")</v>
+        <v>KW.scrollAndSetText(myJDD, "ST_TXTBAS1")</v>
       </c>
       <c r="H45" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ST_TXTBAS3")</v>
+        <v>KW.verifyValue(myJDD,"ST_TXTBAS1")</v>
       </c>
       <c r="I45" s="18" t="str">
         <f t="shared" si="8"/>
@@ -1939,22 +2027,22 @@
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F46" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>KW.scrollAndSetText(myJDD,"ST_TXTBAS4")</v>
+        <v>KW.scrollAndSetText(myJDD,"ST_TXTBAS2")</v>
       </c>
       <c r="G46" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>KW.scrollAndSetText(myJDD, "ST_TXTBAS4")</v>
+        <v>KW.scrollAndSetText(myJDD, "ST_TXTBAS2")</v>
       </c>
       <c r="H46" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ST_TXTBAS4")</v>
+        <v>KW.verifyValue(myJDD,"ST_TXTBAS2")</v>
       </c>
       <c r="I46" s="18" t="str">
         <f t="shared" si="8"/>
@@ -1967,22 +2055,22 @@
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F47" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>KW.scrollAndSetText(myJDD,"ST_TXTBAS5")</v>
+        <v>KW.scrollAndSetText(myJDD,"ST_TXTBAS3")</v>
       </c>
       <c r="G47" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>KW.scrollAndSetText(myJDD, "ST_TXTBAS5")</v>
+        <v>KW.scrollAndSetText(myJDD, "ST_TXTBAS3")</v>
       </c>
       <c r="H47" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ST_TXTBAS5")</v>
+        <v>KW.verifyValue(myJDD,"ST_TXTBAS3")</v>
       </c>
       <c r="I47" s="18" t="str">
         <f t="shared" si="8"/>
@@ -1995,22 +2083,22 @@
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F48" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>KW.scrollAndSetText(myJDD,"ST_TXTBAS6")</v>
+        <v>KW.scrollAndSetText(myJDD,"ST_TXTBAS4")</v>
       </c>
       <c r="G48" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>KW.scrollAndSetText(myJDD, "ST_TXTBAS6")</v>
+        <v>KW.scrollAndSetText(myJDD, "ST_TXTBAS4")</v>
       </c>
       <c r="H48" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>KW.verifyValue(myJDD,"ST_TXTBAS6")</v>
+        <v>KW.verifyValue(myJDD,"ST_TXTBAS4")</v>
       </c>
       <c r="I48" s="18" t="str">
         <f t="shared" si="8"/>
@@ -2023,22 +2111,22 @@
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_FIGCDE","O")</v>
+        <v>KW.scrollAndSetText(myJDD,"ST_TXTBAS5")</v>
       </c>
       <c r="G49" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_FIGCDE","O")</v>
+        <v>KW.scrollAndSetText(myJDD, "ST_TXTBAS5")</v>
       </c>
       <c r="H49" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>KW.verifyElementCheckedOrNot(myJDD,"ST_FIGCDE","O")</v>
+        <v>KW.verifyValue(myJDD,"ST_TXTBAS5")</v>
       </c>
       <c r="I49" s="18" t="str">
         <f t="shared" si="8"/>
@@ -2049,28 +2137,52 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:10" s="15" customFormat="1">
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
+    <row r="50" spans="2:10">
+      <c r="B50" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>KW.scrollAndSetText(myJDD,"ST_TXTBAS6")</v>
+      </c>
+      <c r="G50" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>KW.scrollAndSetText(myJDD, "ST_TXTBAS6")</v>
+      </c>
+      <c r="H50" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>KW.verifyValue(myJDD,"ST_TXTBAS6")</v>
+      </c>
+      <c r="I50" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J50" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="51" spans="2:10">
       <c r="B51" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F51" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>MYLOG.addSTEPGRP("ONGLET NOTES")</v>
+        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_FIGCDE","O")</v>
       </c>
       <c r="G51" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>MYLOG.addSTEPGRP("ONGLET NOTES")</v>
+        <v>KW.scrollAndCheckIfNeeded(myJDD,"ST_FIGCDE","O")</v>
       </c>
       <c r="H51" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>MYLOG.addSTEPGRP("ONGLET NOTES")</v>
+        <v>KW.verifyElementCheckedOrNot(myJDD,"ST_FIGCDE","O")</v>
       </c>
       <c r="I51" s="18" t="str">
         <f t="shared" si="8"/>
@@ -2086,78 +2198,110 @@
       <c r="J52" s="18"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>MYLOG.addSTEPGRP("ONGLET NOTES")</v>
+      </c>
+      <c r="G53" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>MYLOG.addSTEPGRP("ONGLET NOTES")</v>
+      </c>
+      <c r="H53" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>MYLOG.addSTEPGRP("ONGLET NOTES")</v>
+      </c>
+      <c r="I53" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J53" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:10" s="15" customFormat="1">
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D55" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="15" t="str">
+      <c r="F55" s="15" t="str">
         <f t="shared" si="5"/>
         <v>KW.scrollAndClick(myJDD,"tab_Notes")</v>
       </c>
-      <c r="G53" s="15" t="str">
+      <c r="G55" s="15" t="str">
         <f t="shared" si="6"/>
         <v>KW.scrollAndClick(myJDD,"tab_Notes")</v>
       </c>
-      <c r="H53" s="15" t="str">
+      <c r="H55" s="15" t="str">
         <f t="shared" si="7"/>
         <v>KW.scrollAndClick(myJDD,"tab_Notes")</v>
       </c>
-      <c r="I53" s="18" t="str">
+      <c r="I55" s="18" t="str">
         <f t="shared" si="8"/>
         <v>tab_Notes</v>
       </c>
-      <c r="J53" s="18" t="str">
+      <c r="J55" s="18" t="str">
         <f t="shared" si="9"/>
         <v>$TAB$NOTES</v>
       </c>
     </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="15" t="s">
+    <row r="56" spans="2:10">
+      <c r="B56" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C56" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D56" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="15" t="str">
+      <c r="F56" s="15" t="str">
         <f t="shared" si="5"/>
         <v>KW.waitForElementVisible(myJDD,"tab_NotesSelected")</v>
       </c>
-      <c r="G54" s="15" t="str">
+      <c r="G56" s="15" t="str">
         <f t="shared" si="6"/>
         <v>KW.waitForElementVisible(myJDD,"tab_NotesSelected")</v>
       </c>
-      <c r="H54" s="15" t="str">
+      <c r="H56" s="15" t="str">
         <f t="shared" si="7"/>
         <v>KW.waitForElementVisible(myJDD,"tab_NotesSelected")</v>
       </c>
-      <c r="I54" s="18" t="str">
+      <c r="I56" s="18" t="str">
         <f t="shared" si="8"/>
         <v>tab_NotesSelected</v>
       </c>
-      <c r="J54" s="18" t="str">
+      <c r="J56" s="18" t="str">
         <f t="shared" si="9"/>
         <v>$TABSELECTED$NOTES</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:H1048576">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$D1="block"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$D1="onglet"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="inconnu" sqref="E9:E60">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="inconnu" sqref="E9:E62">
       <formula1>TAG_name</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
@@ -2460,4 +2604,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D13:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TNR/TCGenerator/TCGenerator_Fournisseur.xlsx
+++ b/TNR/TCGenerator/TCGenerator_Fournisseur.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="48" windowWidth="22116" windowHeight="11400" activeTab="1"/>
+    <workbookView xWindow="288" yWindow="48" windowWidth="22116" windowHeight="11400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Lisez moi" sheetId="5" r:id="rId1"/>
@@ -135,12 +135,6 @@
     <t xml:space="preserve"> --&gt; pas d'action en modification</t>
   </si>
   <si>
-    <t>MYLOG.addSTEPBLOCK("</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYLOG.addSTEPGRP("ONGLET </t>
-  </si>
-  <si>
     <t>")</t>
   </si>
   <si>
@@ -334,6 +328,12 @@
   </si>
   <si>
     <t>ADRESSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNRResult.addSTEPGRP("ONGLET </t>
+  </si>
+  <si>
+    <t>TNRResult.addSTEPBLOCK("</t>
   </si>
 </sst>
 </file>
@@ -482,58 +482,7 @@
     <cellStyle name="Normal 8" xfId="11"/>
     <cellStyle name="Normal 9" xfId="12"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <strike val="0"/>
@@ -857,7 +806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
@@ -883,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -912,7 +861,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="15" t="s">
@@ -921,15 +870,15 @@
       <c r="E2" s="4"/>
       <c r="F2" t="str">
         <f t="shared" ref="F2" si="0">IF(ISBLANK(D2),"",VLOOKUP(D2,TAG_List,2,FALSE)&amp;B2&amp;VLOOKUP(D2,TAG_List,3,FALSE))</f>
-        <v>MYLOG.addSTEPGRP("ONGLET FOURNISSEUR")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET FOURNISSEUR")</v>
       </c>
       <c r="G2" s="5" t="str">
         <f t="shared" ref="G2" si="1">IF(ISBLANK(D2),"",VLOOKUP(D2,TAG_List,4,FALSE)&amp;B2&amp;VLOOKUP(D2,TAG_List,5,FALSE))</f>
-        <v>MYLOG.addSTEPGRP("ONGLET FOURNISSEUR")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET FOURNISSEUR")</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2" si="2">IF(ISBLANK(D2),"",VLOOKUP(D2,TAG_List,6,FALSE)&amp;B2&amp;VLOOKUP(D2,TAG_List,7,FALSE))</f>
-        <v>MYLOG.addSTEPGRP("ONGLET FOURNISSEUR")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET FOURNISSEUR")</v>
       </c>
       <c r="I2" s="8" t="str">
         <f t="shared" ref="I2" si="3">IF(OR(D2="tab",D2="tabselected"),B2&amp;VLOOKUP(D2,TAG_List,8,FALSE),"")</f>
@@ -952,10 +901,10 @@
     </row>
     <row r="4" spans="1:10" s="8" customFormat="1">
       <c r="B4" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>8</v>
@@ -985,10 +934,10 @@
     <row r="5" spans="1:10" s="2" customFormat="1">
       <c r="A5" s="8"/>
       <c r="B5" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>9</v>
@@ -1027,7 +976,7 @@
     <row r="7" spans="1:10" s="2" customFormat="1">
       <c r="A7" s="8"/>
       <c r="B7" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="15" t="s">
@@ -1090,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F9" s="15" t="str">
         <f t="shared" si="5"/>
@@ -1143,7 +1092,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>3</v>
@@ -1199,10 +1148,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F13" s="15" t="str">
         <f t="shared" si="5"/>
@@ -1227,7 +1176,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>11</v>
@@ -1255,22 +1204,22 @@
     </row>
     <row r="15" spans="1:10" s="15" customFormat="1">
       <c r="B15" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="15" t="str">
         <f t="shared" ref="F15:F17" si="10">IF(ISBLANK(D15),"",VLOOKUP(D15,TAG_List,2,FALSE)&amp;B15&amp;VLOOKUP(D15,TAG_List,3,FALSE))</f>
-        <v>MYLOG.addSTEPBLOCK("ADRESSE")</v>
+        <v>TNRResult.addSTEPBLOCK("ADRESSE")</v>
       </c>
       <c r="G15" s="15" t="str">
         <f t="shared" ref="G15:G17" si="11">IF(ISBLANK(D15),"",VLOOKUP(D15,TAG_List,4,FALSE)&amp;B15&amp;VLOOKUP(D15,TAG_List,5,FALSE))</f>
-        <v>MYLOG.addSTEPBLOCK("ADRESSE")</v>
+        <v>TNRResult.addSTEPBLOCK("ADRESSE")</v>
       </c>
       <c r="H15" s="15" t="str">
         <f t="shared" ref="H15:H17" si="12">IF(ISBLANK(D15),"",VLOOKUP(D15,TAG_List,6,FALSE)&amp;B15&amp;VLOOKUP(D15,TAG_List,7,FALSE))</f>
-        <v>MYLOG.addSTEPBLOCK("ADRESSE")</v>
+        <v>TNRResult.addSTEPBLOCK("ADRESSE")</v>
       </c>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
@@ -1293,22 +1242,22 @@
     </row>
     <row r="17" spans="2:10" s="15" customFormat="1">
       <c r="B17" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>MYLOG.addSTEPBLOCK("CONTACT")</v>
+        <v>TNRResult.addSTEPBLOCK("CONTACT")</v>
       </c>
       <c r="G17" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>MYLOG.addSTEPBLOCK("CONTACT")</v>
+        <v>TNRResult.addSTEPBLOCK("CONTACT")</v>
       </c>
       <c r="H17" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>MYLOG.addSTEPBLOCK("CONTACT")</v>
+        <v>TNRResult.addSTEPBLOCK("CONTACT")</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
@@ -1343,7 +1292,7 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>2</v>
@@ -1399,7 +1348,7 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>2</v>
@@ -1455,7 +1404,7 @@
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>2</v>
@@ -1487,22 +1436,22 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>MYLOG.addSTEPGRP("ONGLET COMMANDE")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET COMMANDE")</v>
       </c>
       <c r="G25" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>MYLOG.addSTEPGRP("ONGLET COMMANDE")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET COMMANDE")</v>
       </c>
       <c r="H25" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>MYLOG.addSTEPGRP("ONGLET COMMANDE")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET COMMANDE")</v>
       </c>
       <c r="I25" s="18" t="str">
         <f t="shared" si="8"/>
@@ -1519,10 +1468,10 @@
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>8</v>
@@ -1550,10 +1499,10 @@
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>9</v>
@@ -1585,7 +1534,7 @@
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>2</v>
@@ -1613,10 +1562,10 @@
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F31" s="15" t="str">
         <f t="shared" si="5"/>
@@ -1641,7 +1590,7 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>11</v>
@@ -1669,7 +1618,7 @@
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>2</v>
@@ -1697,10 +1646,10 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F34" s="15" t="str">
         <f t="shared" si="5"/>
@@ -1725,7 +1674,7 @@
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>11</v>
@@ -1753,10 +1702,10 @@
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F36" s="15" t="str">
         <f t="shared" si="5"/>
@@ -1781,7 +1730,7 @@
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>11</v>
@@ -1809,10 +1758,10 @@
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F38" s="15" t="str">
         <f t="shared" si="5"/>
@@ -1837,7 +1786,7 @@
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>11</v>
@@ -1865,10 +1814,10 @@
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F40" s="15" t="str">
         <f t="shared" si="5"/>
@@ -1893,7 +1842,7 @@
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>11</v>
@@ -1921,7 +1870,7 @@
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>2</v>
@@ -1949,7 +1898,7 @@
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>3</v>
@@ -1977,29 +1926,29 @@
     </row>
     <row r="44" spans="2:10" s="15" customFormat="1">
       <c r="B44" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="15" t="str">
         <f t="shared" ref="F44" si="13">IF(ISBLANK(D44),"",VLOOKUP(D44,TAG_List,2,FALSE)&amp;B44&amp;VLOOKUP(D44,TAG_List,3,FALSE))</f>
-        <v>MYLOG.addSTEPBLOCK("TEXTES COMMANDE")</v>
+        <v>TNRResult.addSTEPBLOCK("TEXTES COMMANDE")</v>
       </c>
       <c r="G44" s="15" t="str">
         <f t="shared" ref="G44" si="14">IF(ISBLANK(D44),"",VLOOKUP(D44,TAG_List,4,FALSE)&amp;B44&amp;VLOOKUP(D44,TAG_List,5,FALSE))</f>
-        <v>MYLOG.addSTEPBLOCK("TEXTES COMMANDE")</v>
+        <v>TNRResult.addSTEPBLOCK("TEXTES COMMANDE")</v>
       </c>
       <c r="H44" s="15" t="str">
         <f t="shared" ref="H44" si="15">IF(ISBLANK(D44),"",VLOOKUP(D44,TAG_List,6,FALSE)&amp;B44&amp;VLOOKUP(D44,TAG_List,7,FALSE))</f>
-        <v>MYLOG.addSTEPBLOCK("TEXTES COMMANDE")</v>
+        <v>TNRResult.addSTEPBLOCK("TEXTES COMMANDE")</v>
       </c>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>2</v>
@@ -2027,7 +1976,7 @@
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>2</v>
@@ -2055,7 +2004,7 @@
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>2</v>
@@ -2083,7 +2032,7 @@
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>2</v>
@@ -2111,7 +2060,7 @@
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>2</v>
@@ -2139,7 +2088,7 @@
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>2</v>
@@ -2167,7 +2116,7 @@
     </row>
     <row r="51" spans="2:10">
       <c r="B51" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>3</v>
@@ -2199,22 +2148,22 @@
     </row>
     <row r="53" spans="2:10">
       <c r="B53" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>MYLOG.addSTEPGRP("ONGLET NOTES")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET NOTES")</v>
       </c>
       <c r="G53" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>MYLOG.addSTEPGRP("ONGLET NOTES")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET NOTES")</v>
       </c>
       <c r="H53" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>MYLOG.addSTEPGRP("ONGLET NOTES")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET NOTES")</v>
       </c>
       <c r="I53" s="18" t="str">
         <f t="shared" si="8"/>
@@ -2231,10 +2180,10 @@
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>8</v>
@@ -2262,10 +2211,10 @@
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>9</v>
@@ -2293,10 +2242,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:H1048576">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$D1="block"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$D1="onglet"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2317,8 +2266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2366,23 +2315,23 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>38</v>
+      <c r="B2" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2" s="6"/>
     </row>
@@ -2390,23 +2339,23 @@
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -2415,22 +2364,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="9" t="s">
@@ -2442,22 +2391,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>25</v>
@@ -2471,46 +2420,46 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -2531,10 +2480,10 @@
         <v>36</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -2543,22 +2492,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="G9" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -2567,37 +2516,37 @@
         <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2618,50 +2567,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
